--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.37414168231496087</v>
+        <v>0.37494215285258325</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31680547254262575</v>
+        <v>0.31728777927991436</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.048085327511888466</v>
+        <v>-0.048250834437548649</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.011130121542701907</v>
+        <v>-0.011237472636205777</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0011439701613632973</v>
+        <v>0.0011219728675306727</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0050857641402771289</v>
+        <v>0.0050848182041610922</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00060494694454706012</v>
+        <v>0.00060397080384812164</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.010474238510292937</v>
+        <v>-0.010495629456459092</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0055187965463607269</v>
+        <v>0.0055188010820047539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28080614107333213</v>
+        <v>0.28186685752609764</v>
       </c>
       <c r="C4" s="0">
-        <v>0.010752029162466375</v>
+        <v>0.011297879567615798</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0015666158564168655</v>
+        <v>-0.0015583423365256245</v>
       </c>
       <c r="F4" s="0">
-        <v>0.000513620762357359</v>
+        <v>0.00051196392761580051</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.003992530494592539</v>
+        <v>0.0039928363574255644</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.046907894242130203</v>
+        <v>-0.046894796157765192</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.004816976032280147</v>
+        <v>-0.0048044257985845407</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0020339742421173201</v>
+        <v>0.0020339626864014915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.4351896897184348</v>
+        <v>0.4371086494903183</v>
       </c>
       <c r="C5" s="0">
-        <v>0.23377641129447974</v>
+        <v>0.2358094723210559</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.030151791669093073</v>
+        <v>-0.031193923573388738</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0076118447989823347</v>
+        <v>-0.0074990983242485612</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.019114362686154206</v>
+        <v>-0.019366763523345647</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.010479549008820352</v>
+        <v>-0.010496619648665126</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0022784126184813304</v>
+        <v>0.0022815750952709427</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.019012682126847157</v>
+        <v>-0.018991798149531766</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0046989550220387644</v>
+        <v>0.0046989477670736912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.52771652600118935</v>
+        <v>0.52814190741875011</v>
       </c>
       <c r="C6" s="0">
-        <v>0.04088608356422746</v>
+        <v>0.03926943925387117</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0064203975192978126</v>
+        <v>-0.0064205297882995883</v>
       </c>
       <c r="F6" s="0">
-        <v>0.011295503412393042</v>
+        <v>0.011350951816908976</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0043048592381510981</v>
+        <v>0.0043916781529059331</v>
       </c>
       <c r="I6" s="0">
-        <v>0.037392117366081327</v>
+        <v>0.037373047067549917</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.005068670221199445</v>
+        <v>0.0050686714254953857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.55000235956670052</v>
+        <v>0.54927984900814897</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.051251302531039211</v>
+        <v>0.050935570642089791</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0031165965387070079</v>
+        <v>-0.0029573773074936774</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.063335238564940152</v>
+        <v>-0.064338452021497641</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0080561531925154219</v>
+        <v>0.008063204740199904</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.001388556188056435</v>
+        <v>-0.0013837665298571545</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.030818769133660107</v>
+        <v>0.030818762065957683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.075452046087623126</v>
+        <v>0.075769554803508943</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.44020328255708696</v>
+        <v>-0.43937466354771604</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0059748832280881485</v>
+        <v>0.0059380149059734821</v>
       </c>
       <c r="F8" s="0">
-        <v>0.033025883276374936</v>
+        <v>0.033003659045883628</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.0011152834790511346</v>
+        <v>-0.001122915937623365</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.071060873611692305</v>
+        <v>-0.070782846367150251</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0011716403357100447</v>
+        <v>-0.0011715423040075112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.00046583275652656297</v>
+        <v>-0.00056392017379197634</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.1043727732446272</v>
+        <v>-0.10473246181758607</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.066170541531095584</v>
+        <v>-0.066448226700680901</v>
       </c>
       <c r="F9" s="0">
-        <v>0.092582039727698864</v>
+        <v>0.092894759177118494</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0039224087181747415</v>
+        <v>-0.0039845070481038906</v>
       </c>
       <c r="H9" s="0">
-        <v>-5.1823750331918446e-05</v>
+        <v>-7.6154081641479753e-05</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00071153547329096752</v>
+        <v>-0.00071605479960878374</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0067291641456718593</v>
+        <v>0.0067291702932017333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.25048750463153213</v>
+        <v>0.25447748280026017</v>
       </c>
       <c r="C10" s="0">
-        <v>0.25927157206803031</v>
+        <v>0.26341824452223311</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0098139260037416968</v>
+        <v>0.0098352589657540943</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0057131440616847067</v>
+        <v>-0.0057059535851061742</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0032426388134673021</v>
+        <v>-0.0032438949597869003</v>
       </c>
       <c r="I10" s="0">
-        <v>0.012119624750619919</v>
+        <v>0.011991957638635673</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.010779521873944693</v>
+        <v>-0.010737831459777646</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.010516480685236473</v>
+        <v>-0.010516378147900074</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.59573790485673439</v>
+        <v>0.6012162683384028</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.27553360193640947</v>
+        <v>0.27608880179844986</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00844629814057744</v>
+        <v>0.0086376429710910314</v>
       </c>
       <c r="F11" s="0">
-        <v>0.018352313260304107</v>
+        <v>0.018996936426581873</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0055586157014538952</v>
+        <v>-0.0055586309381815153</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0011206579346542806</v>
+        <v>-0.0010836579988595192</v>
       </c>
       <c r="I11" s="0">
-        <v>0.08715507889732392</v>
+        <v>0.087215307302099823</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.037557618373304513</v>
+        <v>-0.037557614023038921</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.23692507859600248</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.32331421480764799</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0033425990038162671</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.00011646454896633338</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-7.2634137113761788e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.027620400336508352</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.016743004013912821</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,17 +388,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="16.24609375" customWidth="true"/>
+    <col min="2" max="2" width="15.24609375" customWidth="true"/>
     <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.24609375" customWidth="true"/>
     <col min="11" max="11" width="15.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.37494215285258325</v>
+        <v>0.3756336733557134</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31728777927991436</v>
+        <v>0.317481480296468</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.048250834437548649</v>
+        <v>-0.04879228342861873</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.011237472636205777</v>
+        <v>-0.011163532794413299</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0011219728675306727</v>
+        <v>0.0011371717406512879</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0050848182041610922</v>
+        <v>0.0050933459109478944</v>
       </c>
       <c r="H3" s="0">
-        <v>0.00060397080384812164</v>
+        <v>0.0006037785343466415</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.010495629456459092</v>
+        <v>-0.010549486055510766</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0055188010820047539</v>
+        <v>0.005518813033351555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28186685752609764</v>
+        <v>0.28375284991673089</v>
       </c>
       <c r="C4" s="0">
-        <v>0.011297879567615798</v>
+        <v>0.012966187534909983</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0015583423365256245</v>
+        <v>-0.0015575990590950832</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00051196392761580051</v>
+        <v>0.0004887874377536729</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0039928363574255644</v>
+        <v>0.0039297917421143502</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.046894796157765192</v>
+        <v>-0.0468118919384682</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0048044257985845407</v>
+        <v>-0.0047778326416275472</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0020339626864014915</v>
+        <v>0.0020339265446757127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.4371086494903183</v>
+        <v>0.43473706849198035</v>
       </c>
       <c r="C5" s="0">
-        <v>0.2358094723210559</v>
+        <v>0.23153541778538486</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.031193923573388738</v>
+        <v>-0.030812568732264421</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0074990983242485612</v>
+        <v>-0.0077291595993037275</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.019366763523345647</v>
+        <v>-0.019449949739427038</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.010496619648665126</v>
+        <v>-0.010557423982214865</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0022815750952709427</v>
+        <v>0.002259419225451368</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.018991798149531766</v>
+        <v>-0.018960544630371945</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0046989477670736912</v>
+        <v>0.004699028247995285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.52814190741875011</v>
+        <v>0.53172170190641066</v>
       </c>
       <c r="C6" s="0">
-        <v>0.03926943925387117</v>
+        <v>0.045088850201040268</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0064205297882995883</v>
+        <v>-0.0064194918765502476</v>
       </c>
       <c r="F6" s="0">
-        <v>0.011350951816908976</v>
+        <v>0.011435724407433814</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0043916781529059331</v>
+        <v>0.0044904934804676768</v>
       </c>
       <c r="I6" s="0">
-        <v>0.037373047067549917</v>
+        <v>0.037320498085982104</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0050686714254953857</v>
+        <v>0.0050685591160566923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.54927984900814897</v>
+        <v>0.55313190108822696</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.050935570642089791</v>
+        <v>0.050957933886076001</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0029573773074936774</v>
+        <v>-0.0025809824898211688</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.064338452021497641</v>
+        <v>-0.064487992335026556</v>
       </c>
       <c r="G7" s="0">
-        <v>0.008063204740199904</v>
+        <v>0.0081115305354266774</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0013837665298571545</v>
+        <v>-0.0014090548188779247</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.030818762065957683</v>
+        <v>0.030818764404039301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.075769554803508943</v>
+        <v>0.067985995320457682</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.43937466354771604</v>
+        <v>-0.4510397156691987</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0059380149059734821</v>
+        <v>0.0058914051286388918</v>
       </c>
       <c r="F8" s="0">
-        <v>0.033003659045883628</v>
+        <v>0.033005337922561058</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.001122915937623365</v>
+        <v>-0.0010745502781333979</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.070782846367150251</v>
+        <v>-0.070756871390112955</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0011715423040075112</v>
+        <v>-0.0011715114815240568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.00056392017379197634</v>
+        <v>-0.0085720211069605923</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.10473246181758607</v>
+        <v>-0.10450546819908491</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.066448226700680901</v>
+        <v>-0.066769622304514192</v>
       </c>
       <c r="F9" s="0">
-        <v>0.092894759177118494</v>
+        <v>0.092735226512042149</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0039845070481038906</v>
+        <v>-0.003893654346754134</v>
       </c>
       <c r="H9" s="0">
-        <v>-7.6154081641479753e-05</v>
+        <v>-0.00013685043803177664</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00071605479960878374</v>
+        <v>-0.00071679651922028321</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0067291702932017333</v>
+        <v>0.0067291488681448658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.25447748280026017</v>
+        <v>0.24488308372652456</v>
       </c>
       <c r="C10" s="0">
-        <v>0.26341824452223311</v>
+        <v>0.26162487506856197</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0098352589657540943</v>
+        <v>0.0097843586912293324</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0057059535851061742</v>
+        <v>-0.0057581152064829716</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0032438949597869003</v>
+        <v>-0.0032723787501244338</v>
       </c>
       <c r="I10" s="0">
-        <v>0.011991957638635673</v>
+        <v>0.012154563753677221</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.010737831459777646</v>
+        <v>-0.010561791053032024</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.010516378147900074</v>
+        <v>-0.010516407670344008</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.6012162683384028</v>
+        <v>0.59696047811128683</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.27608880179844986</v>
+        <v>0.27917229623415107</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0086376429710910314</v>
+        <v>0.0088230435932307519</v>
       </c>
       <c r="F11" s="0">
-        <v>0.018996936426581873</v>
+        <v>0.019686950414517821</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0055586309381815153</v>
+        <v>-0.0054155474337027106</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0010836579988595192</v>
+        <v>-0.0010673025537625621</v>
       </c>
       <c r="I11" s="0">
-        <v>0.087215307302099823</v>
+        <v>0.088435624803566162</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.037557614023038921</v>
+        <v>-0.037557670673238286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.23692507859600248</v>
+        <v>0.22654349944359581</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.32331421480764799</v>
+        <v>-0.36319133377080082</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0033425990038162671</v>
+        <v>0.0035015601718557852</v>
       </c>
       <c r="F12" s="0">
-        <v>0.00011646454896633338</v>
+        <v>-0.015460382844864002</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-7.2634137113761788e-05</v>
+        <v>-0.012308584676270943</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.027620400336508352</v>
+        <v>0.033157557600686352</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.016743004013912821</v>
+        <v>-0.016115795148297418</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.31550027898190408</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.22356692937008055</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.0043992187236448809</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.072569817096850536</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0017806543097043047</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0032553787544198536</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0065329155222222188</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.2363454705682454</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.29746902778824008</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.069941239958163121</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.017639123628942672</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.014464759161932402</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.003452298466278125</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.052016655428094222</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00039965446657969084</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr5_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.3756336733557134</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.317481480296468</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28375284991673089</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.43473706849198035</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.53172170190641066</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.55313190108822696</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.067985995320457682</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.0085720211069605923</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.24488308372652456</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.59696047811128683</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.22654349944359581</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.31550027898190408</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.29746902778824008</v>
+        <v>0.32927741886037742</v>
       </c>
       <c r="C14" s="0">
-        <v>0.069941239958163121</v>
+        <v>0.09011765709635873</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.017639123628942672</v>
+        <v>-0.01804973780850121</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.014464759161932402</v>
+        <v>-0.016919629512607622</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.003452298466278125</v>
+        <v>-0.0060407611885810028</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.052016655428094222</v>
+        <v>-0.021943962770317814</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00039965446657969084</v>
+        <v>-0.013386425937877755</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.18273904744019542</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.31648041808828542</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.040077950837890466</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.034290634659891052</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0054355795699318641</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.1951843116042199</v>
       </c>
     </row>
   </sheetData>
